--- a/biology/Zoologie/Coméphore/Coméphore.xlsx
+++ b/biology/Zoologie/Coméphore/Coméphore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Com%C3%A9phore</t>
+          <t>Coméphore</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Coméphores (Comephorus) sont un genre de poissons d'eau douce, le seul de la famille des Comephoridae, endémiques du lac Baïkal en Sibérie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Com%C3%A9phore</t>
+          <t>Coméphore</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (16 octobre 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (16 octobre 2023) :
 Comephorus baikalensis (Pallas, 1776)
 Comephorus dybowskii Korotneff, 1904</t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Com%C3%A9phore</t>
+          <t>Coméphore</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les deux espèces se nourrissent de poissons et d'amphipodes, avec une part de poissons plus importante que d'amphipodes dans l'alimentation de Comephorus baikalensis et, à l'inverse, plus d'amphipodes que de poissons pour Comephorus dybowskii[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux espèces se nourrissent de poissons et d'amphipodes, avec une part de poissons plus importante que d'amphipodes dans l'alimentation de Comephorus baikalensis et, à l'inverse, plus d'amphipodes que de poissons pour Comephorus dybowskii.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Com%C3%A9phore</t>
+          <t>Coméphore</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Comephorus Lacépède, 1800[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Comephorus Lacépède, 1800.
 </t>
         </is>
       </c>
